--- a/with logs for unschedule with saturday sunday/excel_schedules/room_116_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/room_116_genetic_schedule.xlsx
@@ -658,7 +658,7 @@
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>DS 401 - Data Structures
 3A
@@ -672,7 +672,7 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
-      <c r="F23" s="2" t="n"/>
+      <c r="C23" s="2" t="n"/>
     </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -680,7 +680,7 @@
           <t>7:00 PM - 7:30 PM</t>
         </is>
       </c>
-      <c r="F24" s="2" t="n"/>
+      <c r="C24" s="2" t="n"/>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
-      <c r="F25" s="2" t="n"/>
+      <c r="C25" s="2" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="C22:C25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
